--- a/www/IndicatorsPerCountry/Somalia_GDPperCapita_TerritorialRef_1960_2012_CCode_706.xlsx
+++ b/www/IndicatorsPerCountry/Somalia_GDPperCapita_TerritorialRef_1960_2012_CCode_706.xlsx
@@ -234,13 +234,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>
